--- a/medicine/Enfance/Hugo_Verlomme/Hugo_Verlomme.xlsx
+++ b/medicine/Enfance/Hugo_Verlomme/Hugo_Verlomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hugo Verlomme, est un écrivain français spécialiste de la mer[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hugo Verlomme, est un écrivain français spécialiste de la mer.
 Il fait partie des rares écrivains parlant des vagues, du surf et bodysurf.
 </t>
         </is>
@@ -512,11 +524,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D’abord journaliste dans les années 1970 (Combat, Le Quotidien de Paris, Les Nouvelles Littéraires, etc.), Hugo Verlomme devient écrivain très jeune[2] et fait publier Détour, récit de voyage, puis Cowabunga ! Premier livre français sur le surf en 1976. Il connaît le succès avec un livre fantastique, Mermere (Prix Fiction 1978)[réf. nécessaire].
-Sa passion pour l’océan le pousse à voyager par voie de mer. Pionnier des voyages en cargo. Il a publié 7 éditions[3] du Guide des voyages en Cargo (seul livre sur le sujet). Très impliqué dans la défense des océans, il a créé une association de défense des cétacés[4](Réseau-Cétacés).
-Hugo Verlomme a écrit une trentaine de livres, la plupart consacrés à l’océan. Également écrivain jeunesse[5], certains de ses romans sont étudiés dans les collèges, comme L’homme des vagues. L’auteur se rend souvent en milieu scolaire[6] pour y parler du futur de l’océan, de surf et d’écologie. Il donne des conférences sur ces thèmes et intervient dans les médias[7]. Depuis quelques années, Hugo Verlomme travaille avec la ville de Capbreton pour faire connaître le « Gouf de Capbreton »[8], un canyon sous-marin qui commence tout près de chez lui, devant les plages où il pratique le bodysurf.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D’abord journaliste dans les années 1970 (Combat, Le Quotidien de Paris, Les Nouvelles Littéraires, etc.), Hugo Verlomme devient écrivain très jeune et fait publier Détour, récit de voyage, puis Cowabunga ! Premier livre français sur le surf en 1976. Il connaît le succès avec un livre fantastique, Mermere (Prix Fiction 1978)[réf. nécessaire].
+Sa passion pour l’océan le pousse à voyager par voie de mer. Pionnier des voyages en cargo. Il a publié 7 éditions du Guide des voyages en Cargo (seul livre sur le sujet). Très impliqué dans la défense des océans, il a créé une association de défense des cétacés(Réseau-Cétacés).
+Hugo Verlomme a écrit une trentaine de livres, la plupart consacrés à l’océan. Également écrivain jeunesse, certains de ses romans sont étudiés dans les collèges, comme L’homme des vagues. L’auteur se rend souvent en milieu scolaire pour y parler du futur de l’océan, de surf et d’écologie. Il donne des conférences sur ces thèmes et intervient dans les médias. Depuis quelques années, Hugo Verlomme travaille avec la ville de Capbreton pour faire connaître le « Gouf de Capbreton », un canyon sous-marin qui commence tout près de chez lui, devant les plages où il pratique le bodysurf.
 </t>
         </is>
       </c>
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans, nouvelles, récits, essais
-Surf Saga, Cowabunga ! Editions du Chëne, Paris 1976, 141 p.   (ISBN 2-85108-093-8), (BNF 34694113)
+          <t>Romans, nouvelles, récits, essais</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Surf Saga, Cowabunga ! Editions du Chëne, Paris 1976, 141 p.   (ISBN 2-85108-093-8), (BNF 34694113)
 Détour, Editions Le Dernier Terrain vague, Paris, 1977, 179 p.   (ISBN 2-86219-002-0), (BNF 34706526)
 Mermere, JC Lattès (prix Fiction), 1978, 1989
 Larima Baie (roman), JC Lattès, 1985
@@ -564,20 +583,122 @@
 199 citations de surf, Éditions Pimientos. 2016
 Hossegor, The place to be, Éditions Pimientos. 2016
 Demain l'océan, Albin Michel, 2018
-Le gouf de Capbreton, Editions Arteaz Pimientos, 2022
-Guides
-Le Guide des voyages en cargo, JC Lattès, 1993, 1998, 2000
+Le gouf de Capbreton, Editions Arteaz Pimientos, 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hugo_Verlomme</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hugo_Verlomme</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Guides</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Guide des voyages en cargo, JC Lattès, 1993, 1998, 2000
 Le Guide des voyages en cargos et ships, Les Équateurs, 2006
-Le Guide des voyages en cargo et autres navires, Les Équateurs 2011 (coauteur Marc-Antoine Bombail),
-Livres pour la jeunesse
-Le Manuel du jeune Robinson, (jeunesse, 4 vol.), Fleurus, 1992
+Le Guide des voyages en cargo et autres navires, Les Équateurs 2011 (coauteur Marc-Antoine Bombail),</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hugo_Verlomme</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hugo_Verlomme</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Livres pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le Manuel du jeune Robinson, (jeunesse, 4 vol.), Fleurus, 1992
 L’Homme des vagues, (roman), Gallimard Jeunesse, 1992 (Prix Versele, Pithiviers, Saint-Exupéry, Ville de Marseille)
 Les Indiens de la Ville Lumière, (roman), Gallimard Jeunesse, 1995
 Une vague pour Manu, Gallimard Jeunesse, 1998
 Le Secret du capitaine Killian, (roman), Gallimard-Jeunesse, 2009
-Samouraï Océan, t. 1 (roman), Gallimard Jeunesse. 2013
-Œuvres de collaboration
-Le dossier vert d'une drogue douce (Michka et Hugo Verlomme coauteur) Robert Laffont, Paris, 1978, 367 p.   (ISBN 978-2-221-00015-1), (BNF 34603770)
+Samouraï Océan, t. 1 (roman), Gallimard Jeunesse. 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hugo_Verlomme</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hugo_Verlomme</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Œuvres de collaboration</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le dossier vert d'une drogue douce (Michka et Hugo Verlomme coauteur) Robert Laffont, Paris, 1978, 367 p.   (ISBN 978-2-221-00015-1), (BNF 34603770)
 Les Enfants du Capitaine Nemo, (avec Jacques Rougerie), Arthaud, 1986
 Fous de glisse, (coauteur Alexandre Hurel), Albin Michel, 1990
 La Chose - 10 raisons pour briser le tabou du caca, Michka (auteur) et Hugo Verlomme (collaborateur), Genève, Georg, 1993, 273 p.   (ISBN 978-2-8257-0471-4), (BNF 35679492)
